--- a/カレンダー.xlsx
+++ b/カレンダー.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -437,6 +437,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/カレンダー.xlsx
+++ b/カレンダー.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19059\Documents\UiPath\"/>
@@ -94,12 +94,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -108,8 +123,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -392,7 +410,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -413,36 +432,317 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
+      <c r="A4" s="1">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G50">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
